--- a/biology/Botanique/Xanthostemon_multiflorus/Xanthostemon_multiflorus.xlsx
+++ b/biology/Botanique/Xanthostemon_multiflorus/Xanthostemon_multiflorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xanthostemon laurinus est une espèce d’arbustes de la famille des Myrtaceae ; elle est endémique de la Nouvelle-Calédonie.
 </t>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Cette espèce se présente sous plusieurs formes : comme un arbuste, un arbrisseau, voire un grand arbre allant jusqu'à 30 mètres de haut[1],[2].
-Feuilles
-Les feuilles sont simples et elliptiques[1].
-Fleurs
-Les fleurs sont soit jaune clair, soit à pétales blancs et étamines jaunes[2].
-Fruits
-Les fruits sont des capsules ligneuses[2].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se présente sous plusieurs formes : comme un arbuste, un arbrisseau, voire un grand arbre allant jusqu'à 30 mètres de haut,.
 </t>
         </is>
       </c>
@@ -546,13 +557,126 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont simples et elliptiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Xanthostemon_multiflorus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xanthostemon_multiflorus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont soit jaune clair, soit à pétales blancs et étamines jaunes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Xanthostemon_multiflorus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xanthostemon_multiflorus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des capsules ligneuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Xanthostemon_multiflorus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xanthostemon_multiflorus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce pousse sur l'ensemble de la Grande Terre, sur l'archipel de Belep, sur l'Île Ouen et sur l'Île des Pins. Elle affectionne principalement les terrains miniers, en maquis comme en forêt dense[3].
-Il s'agit de l'espèce la plus répandue de son genre[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce pousse sur l'ensemble de la Grande Terre, sur l'archipel de Belep, sur l'Île Ouen et sur l'Île des Pins. Elle affectionne principalement les terrains miniers, en maquis comme en forêt dense.
+Il s'agit de l'espèce la plus répandue de son genre.
 </t>
         </is>
       </c>
